--- a/biology/Zoologie/Coenagriocnemis/Coenagriocnemis.xlsx
+++ b/biology/Zoologie/Coenagriocnemis/Coenagriocnemis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coenagriocnemis est un genre d'insectes odonates du sous-ordre des demoiselles et de la famille des Coenagrionidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de ce genre sont endémiques de l'archipel des Mascareignes, dans le sud-ouest de l'océan Indien.
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World list of Odonata[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World list of Odonata :
 Coenagriocnemis insulare (Selys, 1872)
 Coenagriocnemis ramburi Fraser, 1950
 Coenagriocnemis reuniensis (Fraser, 1957)
@@ -576,7 +592,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Fraser, 1949 : The Zygoptera of Mauritius (Order Odonata). Transactions of the Royal Entomological Society of London, vol. 100, p. 135-146.</t>
         </is>
